--- a/기획서/맵 레벨링.xlsx
+++ b/기획서/맵 레벨링.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ru\Desktop\졸작\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UNITY\UNITY\Slave revolution\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -70,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>시야 +2, 1칸 초과 이동 불가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이동 -2, 기병타입 진입 불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -143,6 +139,10 @@
   </si>
   <si>
     <t>이동 -2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1칸 초과 이동 불가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -501,9 +501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -795,338 +792,389 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="40.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2"/>
-      <c r="B1" s="6" t="s">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="1">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
+      <c r="B2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="3" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B4" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="C4" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="14">
         <v>0.2</v>
       </c>
-      <c r="C2" s="10">
+      <c r="E5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F6" s="14">
         <v>0.1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="G2" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="10">
-        <v>0.05</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="13">
-        <v>0.15</v>
-      </c>
-      <c r="C3" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D3" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="H4" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="I4" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="G6" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="14">
-        <v>0.4</v>
-      </c>
-      <c r="K5" s="18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.3</v>
-      </c>
-      <c r="D6" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="14">
-        <v>0.1</v>
       </c>
       <c r="H6" s="14">
         <v>0.1</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="C7" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="16" t="s">
-        <v>26</v>
+      <c r="L7" s="1">
+        <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.15</v>
-      </c>
-      <c r="D7" s="14">
-        <v>0.25</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0.2</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="18">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13">
         <v>0.1</v>
       </c>
       <c r="C8" s="14">
+        <v>0.15</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="18">
         <v>0.1</v>
       </c>
-      <c r="D8" s="14">
+      <c r="L8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="14">
         <v>0.35</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E9" s="14">
         <v>0.05</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
         <v>0.05</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>0.15</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H9" s="14">
         <v>0.15</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I9" s="14">
         <v>0.05</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="16" t="s">
-        <v>16</v>
+      <c r="J9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="1">
+        <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:12" ht="32.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="19" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="I10" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="22"/>
+      <c r="J10" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="J9:K9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/기획서/맵 레벨링.xlsx
+++ b/기획서/맵 레벨링.xlsx
@@ -795,7 +795,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,7 +805,7 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
     <col min="7" max="7" width="32.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="40.125" style="1" customWidth="1"/>

--- a/기획서/맵 레벨링.xlsx
+++ b/기획서/맵 레벨링.xlsx
@@ -794,7 +794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -805,11 +805,11 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="32.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="34.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="12.375" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>

--- a/기획서/맵 레벨링.xlsx
+++ b/기획서/맵 레벨링.xlsx
@@ -795,7 +795,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/기획서/맵 레벨링.xlsx
+++ b/기획서/맵 레벨링.xlsx
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
